--- a/111.xlsx
+++ b/111.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="61">
   <si>
     <t>Места</t>
   </si>
@@ -194,6 +194,9 @@
   </si>
   <si>
     <t>Якутия</t>
+  </si>
+  <si>
+    <t>Цена на сайте coinsmart.ru</t>
   </si>
 </sst>
 </file>
@@ -720,8 +723,8 @@
   <dimension ref="A1:W41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K2" sqref="K2"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N28" sqref="N28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -812,6 +815,9 @@
       <c r="Q2" s="12" t="s">
         <v>17</v>
       </c>
+      <c r="S2" s="12" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="3" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="32">
@@ -870,9 +876,18 @@
         <v>30</v>
       </c>
       <c r="I4" s="51"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="23"/>
-      <c r="L4" s="25"/>
+      <c r="J4" s="14">
+        <v>8.2299995422363281</v>
+      </c>
+      <c r="K4" s="23">
+        <v>10000000</v>
+      </c>
+      <c r="L4" s="25">
+        <v>27</v>
+      </c>
+      <c r="S4">
+        <v>50</v>
+      </c>
     </row>
     <row r="5" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="32">
@@ -896,9 +911,18 @@
         <v>30</v>
       </c>
       <c r="I5" s="51"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="23"/>
-      <c r="L5" s="25"/>
+      <c r="J5" s="14">
+        <v>8.2299995422363281</v>
+      </c>
+      <c r="K5" s="23">
+        <v>10000000</v>
+      </c>
+      <c r="L5" s="25">
+        <v>27</v>
+      </c>
+      <c r="S5">
+        <v>50</v>
+      </c>
     </row>
     <row r="6" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="53">
@@ -922,9 +946,18 @@
         <v>400</v>
       </c>
       <c r="I6" s="51"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="23"/>
-      <c r="L6" s="25"/>
+      <c r="J6" s="14">
+        <v>5.0999999046325684</v>
+      </c>
+      <c r="K6" s="23">
+        <v>10000000</v>
+      </c>
+      <c r="L6" s="25">
+        <v>23</v>
+      </c>
+      <c r="S6">
+        <v>120</v>
+      </c>
     </row>
     <row r="7" spans="1:23" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="32"/>
@@ -1043,16 +1076,24 @@
       <c r="G10" s="37"/>
       <c r="H10" s="37"/>
       <c r="I10" s="10"/>
-      <c r="J10" s="33"/>
-      <c r="K10" s="26"/>
-      <c r="L10" s="30"/>
+      <c r="J10" s="33">
+        <v>3.75</v>
+      </c>
+      <c r="K10" s="26">
+        <v>15000000</v>
+      </c>
+      <c r="L10" s="30">
+        <v>22</v>
+      </c>
       <c r="M10" s="9"/>
       <c r="N10" s="9"/>
       <c r="O10" s="9"/>
       <c r="P10" s="9"/>
       <c r="Q10" s="9"/>
       <c r="R10" s="9"/>
-      <c r="S10" s="9"/>
+      <c r="S10" s="9">
+        <v>30</v>
+      </c>
       <c r="T10" s="9"/>
       <c r="U10" s="9"/>
       <c r="V10" s="9"/>
@@ -1265,16 +1306,24 @@
       <c r="G16" s="37"/>
       <c r="H16" s="37"/>
       <c r="I16" s="10"/>
-      <c r="J16" s="33"/>
-      <c r="K16" s="38"/>
-      <c r="L16" s="10"/>
+      <c r="J16" s="33">
+        <v>3.25</v>
+      </c>
+      <c r="K16" s="38">
+        <v>31500000</v>
+      </c>
+      <c r="L16" s="10">
+        <v>20</v>
+      </c>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-      <c r="S16" s="3"/>
+      <c r="S16" s="3">
+        <v>20</v>
+      </c>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
@@ -1339,16 +1388,24 @@
         <v>60</v>
       </c>
       <c r="I18" s="10"/>
-      <c r="J18" s="15"/>
-      <c r="K18" s="28"/>
-      <c r="L18" s="10"/>
+      <c r="J18" s="15">
+        <v>2</v>
+      </c>
+      <c r="K18" s="28">
+        <v>12000000</v>
+      </c>
+      <c r="L18" s="10">
+        <v>16</v>
+      </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
       <c r="Q18" s="2"/>
       <c r="R18" s="2"/>
-      <c r="S18" s="2"/>
+      <c r="S18" s="2">
+        <v>10</v>
+      </c>
       <c r="T18" s="2"/>
       <c r="U18" s="2"/>
       <c r="V18" s="2"/>
@@ -1376,16 +1433,24 @@
         <v>60</v>
       </c>
       <c r="I19" s="10"/>
-      <c r="J19" s="15"/>
-      <c r="K19" s="28"/>
-      <c r="L19" s="10"/>
+      <c r="J19" s="15">
+        <v>5.5</v>
+      </c>
+      <c r="K19" s="28">
+        <v>7000000</v>
+      </c>
+      <c r="L19" s="10">
+        <v>23.5</v>
+      </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
       <c r="Q19" s="2"/>
       <c r="R19" s="2"/>
-      <c r="S19" s="2"/>
+      <c r="S19" s="2">
+        <v>75</v>
+      </c>
       <c r="T19" s="2"/>
       <c r="U19" s="2"/>
       <c r="V19" s="2"/>
@@ -1550,16 +1615,24 @@
         <v>10</v>
       </c>
       <c r="I24" s="10"/>
-      <c r="J24" s="15"/>
-      <c r="K24" s="28"/>
-      <c r="L24" s="10"/>
+      <c r="J24" s="15">
+        <v>2.5</v>
+      </c>
+      <c r="K24" s="28">
+        <v>10000000</v>
+      </c>
+      <c r="L24" s="10">
+        <v>19</v>
+      </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
       <c r="P24" s="2"/>
       <c r="Q24" s="2"/>
       <c r="R24" s="2"/>
-      <c r="S24" s="2"/>
+      <c r="S24" s="2">
+        <v>25</v>
+      </c>
       <c r="T24" s="2"/>
       <c r="U24" s="2"/>
       <c r="V24" s="2"/>
@@ -1587,16 +1660,24 @@
         <v>13</v>
       </c>
       <c r="I25" s="10"/>
-      <c r="J25" s="15"/>
-      <c r="K25" s="28"/>
-      <c r="L25" s="10"/>
+      <c r="J25" s="15">
+        <v>3.5</v>
+      </c>
+      <c r="K25" s="28">
+        <v>3453025</v>
+      </c>
+      <c r="L25" s="10">
+        <v>20</v>
+      </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
       <c r="Q25" s="2"/>
       <c r="R25" s="2"/>
-      <c r="S25" s="2"/>
+      <c r="S25" s="2">
+        <v>30</v>
+      </c>
       <c r="T25" s="2"/>
       <c r="U25" s="2"/>
       <c r="V25" s="2"/>
@@ -1700,16 +1781,24 @@
         <v>44</v>
       </c>
       <c r="I28" s="10"/>
-      <c r="J28" s="33"/>
-      <c r="K28" s="43"/>
-      <c r="L28" s="10"/>
+      <c r="J28" s="33">
+        <v>1.6000000238418579</v>
+      </c>
+      <c r="K28" s="43">
+        <v>4443000</v>
+      </c>
+      <c r="L28" s="10">
+        <v>17</v>
+      </c>
       <c r="M28" s="3"/>
       <c r="N28" s="3"/>
       <c r="O28" s="3"/>
       <c r="P28" s="3"/>
       <c r="Q28" s="3"/>
       <c r="R28" s="3"/>
-      <c r="S28" s="3"/>
+      <c r="S28" s="3">
+        <v>100</v>
+      </c>
       <c r="T28" s="3"/>
       <c r="U28" s="3"/>
       <c r="V28" s="3"/>
@@ -1735,16 +1824,24 @@
         <v>68</v>
       </c>
       <c r="I29" s="10"/>
-      <c r="J29" s="33"/>
-      <c r="K29" s="43"/>
-      <c r="L29" s="10"/>
+      <c r="J29" s="33">
+        <v>3.75</v>
+      </c>
+      <c r="K29" s="43">
+        <v>113600000</v>
+      </c>
+      <c r="L29" s="10">
+        <v>23</v>
+      </c>
       <c r="M29" s="3"/>
       <c r="N29" s="3"/>
       <c r="O29" s="3"/>
       <c r="P29" s="3"/>
       <c r="Q29" s="3"/>
       <c r="R29" s="3"/>
-      <c r="S29" s="3"/>
+      <c r="S29" s="3">
+        <v>190</v>
+      </c>
       <c r="T29" s="3"/>
       <c r="U29" s="3"/>
       <c r="V29" s="3"/>
@@ -1770,16 +1867,24 @@
         <v>44</v>
       </c>
       <c r="I30" s="10"/>
-      <c r="J30" s="33"/>
-      <c r="K30" s="43"/>
-      <c r="L30" s="10"/>
+      <c r="J30" s="33">
+        <v>3.2599999904632568</v>
+      </c>
+      <c r="K30" s="43">
+        <v>42914000</v>
+      </c>
+      <c r="L30" s="10">
+        <v>19.799999237060547</v>
+      </c>
       <c r="M30" s="3"/>
       <c r="N30" s="3"/>
       <c r="O30" s="3"/>
       <c r="P30" s="3"/>
       <c r="Q30" s="3"/>
       <c r="R30" s="3"/>
-      <c r="S30" s="3"/>
+      <c r="S30" s="3">
+        <v>90</v>
+      </c>
       <c r="T30" s="3"/>
       <c r="U30" s="3"/>
       <c r="V30" s="3"/>
@@ -1977,16 +2082,24 @@
         <v>25</v>
       </c>
       <c r="I35" s="10"/>
-      <c r="J35" s="33"/>
-      <c r="K35" s="43"/>
-      <c r="L35" s="10"/>
+      <c r="J35" s="33">
+        <v>3</v>
+      </c>
+      <c r="K35" s="43">
+        <v>2110000</v>
+      </c>
+      <c r="L35" s="10">
+        <v>19.149999618530273</v>
+      </c>
       <c r="M35" s="3"/>
       <c r="N35" s="3"/>
       <c r="O35" s="3"/>
       <c r="P35" s="3"/>
       <c r="Q35" s="3"/>
       <c r="R35" s="3"/>
-      <c r="S35" s="3"/>
+      <c r="S35" s="3">
+        <v>270</v>
+      </c>
       <c r="T35" s="3"/>
       <c r="U35" s="3"/>
       <c r="V35" s="3"/>
@@ -2012,16 +2125,24 @@
         <v>44</v>
       </c>
       <c r="I36" s="10"/>
-      <c r="J36" s="33"/>
-      <c r="K36" s="43"/>
-      <c r="L36" s="10"/>
+      <c r="J36" s="33">
+        <v>5.3400001525878906</v>
+      </c>
+      <c r="K36" s="43">
+        <v>45217000</v>
+      </c>
+      <c r="L36" s="10">
+        <v>23</v>
+      </c>
       <c r="M36" s="3"/>
       <c r="N36" s="3"/>
       <c r="O36" s="3"/>
       <c r="P36" s="3"/>
       <c r="Q36" s="3"/>
       <c r="R36" s="3"/>
-      <c r="S36" s="3"/>
+      <c r="S36" s="3">
+        <v>85</v>
+      </c>
       <c r="T36" s="3"/>
       <c r="U36" s="3"/>
       <c r="V36" s="3"/>
@@ -2090,16 +2211,24 @@
         <v>33</v>
       </c>
       <c r="I38" s="10"/>
-      <c r="J38" s="33"/>
-      <c r="K38" s="43"/>
-      <c r="L38" s="10"/>
+      <c r="J38" s="33">
+        <v>4</v>
+      </c>
+      <c r="K38" s="43">
+        <v>8000000</v>
+      </c>
+      <c r="L38" s="10">
+        <v>22</v>
+      </c>
       <c r="M38" s="3"/>
       <c r="N38" s="3"/>
       <c r="O38" s="3"/>
       <c r="P38" s="3"/>
       <c r="Q38" s="3"/>
       <c r="R38" s="3"/>
-      <c r="S38" s="3"/>
+      <c r="S38" s="3">
+        <v>90</v>
+      </c>
       <c r="T38" s="3"/>
       <c r="U38" s="3"/>
       <c r="V38" s="3"/>
@@ -2211,9 +2340,18 @@
         <v>8</v>
       </c>
       <c r="I41" s="10"/>
-      <c r="J41" s="41"/>
-      <c r="K41" s="17"/>
-      <c r="L41" s="41"/>
+      <c r="J41" s="41">
+        <v>2.7999999523162842</v>
+      </c>
+      <c r="K41" s="17">
+        <v>16622000</v>
+      </c>
+      <c r="L41" s="41">
+        <v>20</v>
+      </c>
+      <c r="S41">
+        <v>60</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.31496062992126" right="0.31496062992126" top="0.15748031496063" bottom="0.15748031496063" header="0.19685039370078999" footer="0.11811023622047"/>

--- a/111.xlsx
+++ b/111.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\pro\Project3\Project3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37AE034C-5C69-435C-836A-2893337DD81D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1775A85-88BF-423A-BC28-90B9C931FF5D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -814,12 +814,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y40"/>
+  <dimension ref="A1:Z40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="65" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="G1" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="P12" sqref="P12"/>
+      <selection pane="bottomLeft" activeCell="J3" sqref="J3:Z40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -842,10 +842,10 @@
     <col min="17" max="17" width="14.42578125" customWidth="1"/>
     <col min="18" max="18" width="13.42578125" customWidth="1"/>
     <col min="19" max="19" width="14" customWidth="1"/>
-    <col min="23" max="23" width="53.7109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>58</v>
       </c>
@@ -864,7 +864,7 @@
       <c r="U1" s="4"/>
       <c r="V1" s="4"/>
     </row>
-    <row r="2" spans="1:25" s="12" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" s="12" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>32</v>
       </c>
@@ -932,7 +932,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="31">
         <v>12</v>
       </c>
@@ -957,29 +957,12 @@
         <v>30</v>
       </c>
       <c r="J3" s="50"/>
-      <c r="K3" s="22">
-        <v>8.4</v>
-      </c>
-      <c r="L3" s="22">
-        <v>10000000</v>
-      </c>
-      <c r="M3" s="22">
-        <v>2.1</v>
-      </c>
-      <c r="N3" s="40">
-        <v>27</v>
-      </c>
-      <c r="T3">
-        <v>122</v>
-      </c>
-      <c r="U3">
-        <v>0</v>
-      </c>
-      <c r="V3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="40"/>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="31">
         <v>12</v>
       </c>
@@ -1004,29 +987,12 @@
         <v>30</v>
       </c>
       <c r="J4" s="50"/>
-      <c r="K4" s="14">
-        <v>8.4</v>
-      </c>
-      <c r="L4" s="22">
-        <v>10000000</v>
-      </c>
-      <c r="M4" s="22">
-        <v>2.1</v>
-      </c>
-      <c r="N4" s="24">
-        <v>27</v>
-      </c>
-      <c r="T4">
-        <v>0</v>
-      </c>
-      <c r="U4">
-        <v>0</v>
-      </c>
-      <c r="V4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="K4" s="14"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="24"/>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="31">
         <v>12</v>
       </c>
@@ -1051,29 +1017,12 @@
         <v>30</v>
       </c>
       <c r="J5" s="50"/>
-      <c r="K5" s="14">
-        <v>8.4</v>
-      </c>
-      <c r="L5" s="22">
-        <v>10000000</v>
-      </c>
-      <c r="M5" s="22">
-        <v>2.1</v>
-      </c>
-      <c r="N5" s="24">
-        <v>27</v>
-      </c>
-      <c r="T5">
-        <v>0</v>
-      </c>
-      <c r="U5">
-        <v>0</v>
-      </c>
-      <c r="V5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="K5" s="14"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="24"/>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="52">
         <v>12</v>
       </c>
@@ -1100,29 +1049,12 @@
         <v>400</v>
       </c>
       <c r="J6" s="50"/>
-      <c r="K6" s="14">
-        <v>8.4</v>
-      </c>
-      <c r="L6" s="22">
-        <v>0</v>
-      </c>
-      <c r="M6" s="22">
-        <v>2.1</v>
-      </c>
-      <c r="N6" s="24">
-        <v>27</v>
-      </c>
-      <c r="T6">
-        <v>0</v>
-      </c>
-      <c r="U6">
-        <v>0</v>
-      </c>
-      <c r="V6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K6" s="14"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="22"/>
+      <c r="N6" s="24"/>
+    </row>
+    <row r="7" spans="1:26" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="31"/>
       <c r="B7" s="33">
         <v>5</v>
@@ -1143,37 +1075,24 @@
       <c r="H7" s="36"/>
       <c r="I7" s="36"/>
       <c r="J7" s="10"/>
-      <c r="K7" s="32">
-        <v>3.06</v>
-      </c>
-      <c r="L7" s="25">
-        <v>0</v>
-      </c>
-      <c r="M7" s="25">
-        <v>1.67</v>
-      </c>
-      <c r="N7" s="29">
-        <v>18.75</v>
-      </c>
+      <c r="K7" s="32"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="25"/>
+      <c r="N7" s="29"/>
       <c r="O7" s="9"/>
       <c r="P7" s="9"/>
       <c r="Q7" s="9"/>
       <c r="R7" s="9"/>
       <c r="S7" s="9"/>
-      <c r="T7" s="9">
-        <v>0</v>
-      </c>
-      <c r="U7" s="9">
-        <v>0</v>
-      </c>
-      <c r="V7" s="9">
-        <v>0</v>
-      </c>
+      <c r="T7" s="9"/>
+      <c r="U7" s="9"/>
+      <c r="V7" s="9"/>
       <c r="W7" s="9"/>
       <c r="X7" s="9"/>
       <c r="Y7" s="9"/>
-    </row>
-    <row r="8" spans="1:25" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z7"/>
+    </row>
+    <row r="8" spans="1:26" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="31"/>
       <c r="B8" s="33">
         <v>6</v>
@@ -1194,37 +1113,24 @@
       <c r="H8" s="36"/>
       <c r="I8" s="36"/>
       <c r="J8" s="10"/>
-      <c r="K8" s="32">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="L8" s="25">
-        <v>0</v>
-      </c>
-      <c r="M8" s="25">
-        <v>1.67</v>
-      </c>
-      <c r="N8" s="29">
-        <v>16.25</v>
-      </c>
+      <c r="K8" s="32"/>
+      <c r="L8" s="25"/>
+      <c r="M8" s="25"/>
+      <c r="N8" s="29"/>
       <c r="O8" s="9"/>
       <c r="P8" s="9"/>
       <c r="Q8" s="9"/>
       <c r="R8" s="9"/>
       <c r="S8" s="9"/>
-      <c r="T8" s="9">
-        <v>0</v>
-      </c>
-      <c r="U8" s="9">
-        <v>0</v>
-      </c>
-      <c r="V8" s="9">
-        <v>0</v>
-      </c>
+      <c r="T8" s="9"/>
+      <c r="U8" s="9"/>
+      <c r="V8" s="9"/>
       <c r="W8" s="9"/>
       <c r="X8" s="9"/>
       <c r="Y8" s="9"/>
-    </row>
-    <row r="9" spans="1:25" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z8"/>
+    </row>
+    <row r="9" spans="1:26" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="31"/>
       <c r="B9" s="33">
         <v>7</v>
@@ -1245,37 +1151,24 @@
       <c r="H9" s="36"/>
       <c r="I9" s="36"/>
       <c r="J9" s="10"/>
-      <c r="K9" s="32">
-        <v>3.92</v>
-      </c>
-      <c r="L9" s="25">
-        <v>0</v>
-      </c>
-      <c r="M9" s="25">
-        <v>1.67</v>
-      </c>
-      <c r="N9" s="29">
-        <v>21.25</v>
-      </c>
+      <c r="K9" s="32"/>
+      <c r="L9" s="25"/>
+      <c r="M9" s="25"/>
+      <c r="N9" s="29"/>
       <c r="O9" s="9"/>
       <c r="P9" s="9"/>
       <c r="Q9" s="9"/>
       <c r="R9" s="9"/>
       <c r="S9" s="9"/>
-      <c r="T9" s="9">
-        <v>0</v>
-      </c>
-      <c r="U9" s="9">
-        <v>0</v>
-      </c>
-      <c r="V9" s="9">
-        <v>0</v>
-      </c>
+      <c r="T9" s="9"/>
+      <c r="U9" s="9"/>
+      <c r="V9" s="9"/>
       <c r="W9" s="9"/>
       <c r="X9" s="9"/>
       <c r="Y9" s="9"/>
-    </row>
-    <row r="10" spans="1:25" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z9"/>
+    </row>
+    <row r="10" spans="1:26" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="31"/>
       <c r="B10" s="33">
         <v>8</v>
@@ -1296,37 +1189,24 @@
       <c r="H10" s="36"/>
       <c r="I10" s="36"/>
       <c r="J10" s="10"/>
-      <c r="K10" s="32">
-        <v>3.92</v>
-      </c>
-      <c r="L10" s="25">
-        <v>0</v>
-      </c>
-      <c r="M10" s="25">
-        <v>1.67</v>
-      </c>
-      <c r="N10" s="29">
-        <v>21.25</v>
-      </c>
+      <c r="K10" s="32"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="25"/>
+      <c r="N10" s="29"/>
       <c r="O10" s="9"/>
       <c r="P10" s="9"/>
       <c r="Q10" s="9"/>
       <c r="R10" s="9"/>
       <c r="S10" s="9"/>
-      <c r="T10" s="9">
-        <v>0</v>
-      </c>
-      <c r="U10" s="9">
-        <v>0</v>
-      </c>
-      <c r="V10" s="9">
-        <v>0</v>
-      </c>
+      <c r="T10" s="9"/>
+      <c r="U10" s="9"/>
+      <c r="V10" s="9"/>
       <c r="W10" s="9"/>
       <c r="X10" s="9"/>
       <c r="Y10" s="9"/>
-    </row>
-    <row r="11" spans="1:25" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z10"/>
+    </row>
+    <row r="11" spans="1:26" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="31"/>
       <c r="B11" s="33">
         <v>9</v>
@@ -1347,37 +1227,24 @@
       <c r="H11" s="36"/>
       <c r="I11" s="36"/>
       <c r="J11" s="10"/>
-      <c r="K11" s="32">
-        <v>3.92</v>
-      </c>
-      <c r="L11" s="25">
-        <v>0</v>
-      </c>
-      <c r="M11" s="25">
-        <v>1.67</v>
-      </c>
-      <c r="N11" s="29">
-        <v>21.25</v>
-      </c>
+      <c r="K11" s="32"/>
+      <c r="L11" s="25"/>
+      <c r="M11" s="25"/>
+      <c r="N11" s="29"/>
       <c r="O11" s="9"/>
       <c r="P11" s="9"/>
       <c r="Q11" s="9"/>
       <c r="R11" s="9"/>
       <c r="S11" s="9"/>
-      <c r="T11" s="9">
-        <v>0</v>
-      </c>
-      <c r="U11" s="9">
-        <v>0</v>
-      </c>
-      <c r="V11" s="9">
-        <v>0</v>
-      </c>
+      <c r="T11" s="9"/>
+      <c r="U11" s="9"/>
+      <c r="V11" s="9"/>
       <c r="W11" s="9"/>
       <c r="X11" s="9"/>
       <c r="Y11" s="9"/>
-    </row>
-    <row r="12" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z11"/>
+    </row>
+    <row r="12" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="31"/>
       <c r="B12" s="33">
         <v>10</v>
@@ -1398,37 +1265,23 @@
       <c r="H12" s="16"/>
       <c r="I12" s="16"/>
       <c r="J12" s="10"/>
-      <c r="K12" s="15">
-        <v>3.92</v>
-      </c>
-      <c r="L12" s="25">
-        <v>0</v>
-      </c>
-      <c r="M12" s="25">
-        <v>1.67</v>
-      </c>
-      <c r="N12" s="23">
-        <v>21.25</v>
-      </c>
+      <c r="K12" s="15"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="25"/>
+      <c r="N12" s="23"/>
       <c r="O12" s="9"/>
       <c r="P12" s="9"/>
       <c r="Q12" s="9"/>
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
-      <c r="T12" s="9">
-        <v>36</v>
-      </c>
-      <c r="U12" s="9">
-        <v>0</v>
-      </c>
-      <c r="V12" s="9">
-        <v>0</v>
-      </c>
+      <c r="T12" s="9"/>
+      <c r="U12" s="9"/>
+      <c r="V12" s="9"/>
       <c r="W12" s="9"/>
       <c r="X12" s="9"/>
       <c r="Y12" s="9"/>
     </row>
-    <row r="13" spans="1:25" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="31"/>
       <c r="B13" s="33">
         <v>11</v>
@@ -1449,37 +1302,24 @@
       <c r="H13" s="36"/>
       <c r="I13" s="36"/>
       <c r="J13" s="10"/>
-      <c r="K13" s="32">
-        <v>3.92</v>
-      </c>
-      <c r="L13" s="25">
-        <v>0</v>
-      </c>
-      <c r="M13" s="25">
-        <v>1.67</v>
-      </c>
-      <c r="N13" s="29">
-        <v>21.25</v>
-      </c>
+      <c r="K13" s="32"/>
+      <c r="L13" s="25"/>
+      <c r="M13" s="25"/>
+      <c r="N13" s="29"/>
       <c r="O13" s="9"/>
       <c r="P13" s="9"/>
       <c r="Q13" s="9"/>
       <c r="R13" s="9"/>
       <c r="S13" s="9"/>
-      <c r="T13" s="9">
-        <v>0</v>
-      </c>
-      <c r="U13" s="9">
-        <v>0</v>
-      </c>
-      <c r="V13" s="9">
-        <v>0</v>
-      </c>
+      <c r="T13" s="9"/>
+      <c r="U13" s="9"/>
+      <c r="V13" s="9"/>
       <c r="W13" s="9"/>
       <c r="X13" s="9"/>
       <c r="Y13" s="9"/>
-    </row>
-    <row r="14" spans="1:25" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z13"/>
+    </row>
+    <row r="14" spans="1:26" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="31"/>
       <c r="B14" s="33">
         <v>12</v>
@@ -1500,37 +1340,24 @@
       <c r="H14" s="36"/>
       <c r="I14" s="36"/>
       <c r="J14" s="10"/>
-      <c r="K14" s="32">
-        <v>3.92</v>
-      </c>
-      <c r="L14" s="25">
-        <v>0</v>
-      </c>
-      <c r="M14" s="25">
-        <v>1.67</v>
-      </c>
-      <c r="N14" s="29">
-        <v>21.25</v>
-      </c>
+      <c r="K14" s="32"/>
+      <c r="L14" s="25"/>
+      <c r="M14" s="25"/>
+      <c r="N14" s="29"/>
       <c r="O14" s="9"/>
       <c r="P14" s="9"/>
       <c r="Q14" s="9"/>
       <c r="R14" s="9"/>
       <c r="S14" s="9"/>
-      <c r="T14" s="9">
-        <v>0</v>
-      </c>
-      <c r="U14" s="9">
-        <v>0</v>
-      </c>
-      <c r="V14" s="9">
-        <v>0</v>
-      </c>
+      <c r="T14" s="9"/>
+      <c r="U14" s="9"/>
+      <c r="V14" s="9"/>
       <c r="W14" s="9"/>
       <c r="X14" s="9"/>
       <c r="Y14" s="9"/>
-    </row>
-    <row r="15" spans="1:25" s="7" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z14"/>
+    </row>
+    <row r="15" spans="1:26" s="7" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="31"/>
       <c r="B15" s="33">
         <v>13</v>
@@ -1551,37 +1378,24 @@
       <c r="H15" s="36"/>
       <c r="I15" s="36"/>
       <c r="J15" s="10"/>
-      <c r="K15" s="32">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="L15" s="37">
-        <v>0</v>
-      </c>
-      <c r="M15" s="46">
-        <v>1.93</v>
-      </c>
-      <c r="N15" s="10">
-        <v>19.75</v>
-      </c>
+      <c r="K15" s="32"/>
+      <c r="L15" s="37"/>
+      <c r="M15" s="46"/>
+      <c r="N15" s="10"/>
       <c r="O15" s="3"/>
       <c r="P15" s="3"/>
       <c r="Q15" s="3"/>
       <c r="R15" s="3"/>
       <c r="S15" s="3"/>
-      <c r="T15" s="3">
-        <v>65</v>
-      </c>
-      <c r="U15" s="3">
-        <v>0</v>
-      </c>
-      <c r="V15" s="3">
-        <v>0</v>
-      </c>
+      <c r="T15" s="3"/>
+      <c r="U15" s="3"/>
+      <c r="V15" s="3"/>
       <c r="W15" s="3"/>
       <c r="X15" s="3"/>
       <c r="Y15" s="3"/>
-    </row>
-    <row r="16" spans="1:25" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z15"/>
+    </row>
+    <row r="16" spans="1:26" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="31"/>
       <c r="B16" s="33">
         <v>14</v>
@@ -1602,37 +1416,24 @@
       <c r="H16" s="36"/>
       <c r="I16" s="36"/>
       <c r="J16" s="10"/>
-      <c r="K16" s="32">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="L16" s="37">
-        <v>0</v>
-      </c>
-      <c r="M16" s="46">
-        <v>1.93</v>
-      </c>
-      <c r="N16" s="10">
-        <v>19.75</v>
-      </c>
+      <c r="K16" s="32"/>
+      <c r="L16" s="37"/>
+      <c r="M16" s="46"/>
+      <c r="N16" s="10"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-      <c r="T16" s="3">
-        <v>0</v>
-      </c>
-      <c r="U16" s="3">
-        <v>0</v>
-      </c>
-      <c r="V16" s="3">
-        <v>0</v>
-      </c>
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z16"/>
+    </row>
+    <row r="17" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="31"/>
       <c r="B17" s="33">
         <v>15</v>
@@ -1657,37 +1458,23 @@
         <v>50</v>
       </c>
       <c r="J17" s="10"/>
-      <c r="K17" s="15">
-        <v>1.4</v>
-      </c>
-      <c r="L17" s="27">
-        <v>0</v>
-      </c>
-      <c r="M17" s="46">
-        <v>0.92</v>
-      </c>
-      <c r="N17" s="10">
-        <v>16.3</v>
-      </c>
+      <c r="K17" s="15"/>
+      <c r="L17" s="27"/>
+      <c r="M17" s="46"/>
+      <c r="N17" s="10"/>
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
       <c r="Q17" s="2"/>
       <c r="R17" s="2"/>
       <c r="S17" s="2"/>
-      <c r="T17" s="2">
-        <v>0</v>
-      </c>
-      <c r="U17" s="2">
-        <v>0</v>
-      </c>
-      <c r="V17" s="2">
-        <v>0</v>
-      </c>
+      <c r="T17" s="2"/>
+      <c r="U17" s="2"/>
+      <c r="V17" s="2"/>
       <c r="W17" s="2"/>
       <c r="X17" s="2"/>
       <c r="Y17" s="2"/>
     </row>
-    <row r="18" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="31"/>
       <c r="B18" s="33">
         <v>16</v>
@@ -1712,37 +1499,23 @@
         <v>60</v>
       </c>
       <c r="J18" s="10"/>
-      <c r="K18" s="15">
-        <v>1.4</v>
-      </c>
-      <c r="L18" s="27">
-        <v>0</v>
-      </c>
-      <c r="M18" s="46">
-        <v>1</v>
-      </c>
-      <c r="N18" s="10">
-        <v>16.3</v>
-      </c>
+      <c r="K18" s="15"/>
+      <c r="L18" s="27"/>
+      <c r="M18" s="46"/>
+      <c r="N18" s="10"/>
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
       <c r="Q18" s="2"/>
       <c r="R18" s="2"/>
       <c r="S18" s="2"/>
-      <c r="T18" s="2">
-        <v>0</v>
-      </c>
-      <c r="U18" s="2">
-        <v>0</v>
-      </c>
-      <c r="V18" s="2">
-        <v>0</v>
-      </c>
+      <c r="T18" s="2"/>
+      <c r="U18" s="2"/>
+      <c r="V18" s="2"/>
       <c r="W18" s="2"/>
       <c r="X18" s="2"/>
       <c r="Y18" s="2"/>
     </row>
-    <row r="19" spans="1:25" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="31"/>
       <c r="B19" s="33">
         <v>18</v>
@@ -1767,37 +1540,24 @@
         <v>100</v>
       </c>
       <c r="J19" s="10"/>
-      <c r="K19" s="32">
-        <v>4</v>
-      </c>
-      <c r="L19" s="46">
-        <v>0</v>
-      </c>
-      <c r="M19" s="46">
-        <v>1.65</v>
-      </c>
-      <c r="N19" s="10">
-        <v>21.95</v>
-      </c>
+      <c r="K19" s="32"/>
+      <c r="L19" s="46"/>
+      <c r="M19" s="46"/>
+      <c r="N19" s="10"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-      <c r="T19" s="3">
-        <v>0</v>
-      </c>
-      <c r="U19" s="3">
-        <v>0</v>
-      </c>
-      <c r="V19" s="3">
-        <v>0</v>
-      </c>
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z19"/>
+    </row>
+    <row r="20" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="31"/>
       <c r="B20" s="33">
         <v>19</v>
@@ -1822,37 +1582,23 @@
         <v>55</v>
       </c>
       <c r="J20" s="10"/>
-      <c r="K20" s="15">
-        <v>3.1</v>
-      </c>
-      <c r="L20" s="27">
-        <v>0</v>
-      </c>
-      <c r="M20" s="46">
-        <v>1.4</v>
-      </c>
-      <c r="N20" s="10">
-        <v>20</v>
-      </c>
+      <c r="K20" s="15"/>
+      <c r="L20" s="27"/>
+      <c r="M20" s="46"/>
+      <c r="N20" s="10"/>
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
       <c r="Q20" s="2"/>
       <c r="R20" s="2"/>
       <c r="S20" s="2"/>
-      <c r="T20" s="2">
-        <v>0</v>
-      </c>
-      <c r="U20" s="2">
-        <v>0</v>
-      </c>
-      <c r="V20" s="2">
-        <v>0</v>
-      </c>
+      <c r="T20" s="2"/>
+      <c r="U20" s="2"/>
+      <c r="V20" s="2"/>
       <c r="W20" s="2"/>
       <c r="X20" s="2"/>
       <c r="Y20" s="2"/>
     </row>
-    <row r="21" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="31"/>
       <c r="B21" s="33">
         <v>20</v>
@@ -1873,29 +1619,12 @@
       <c r="H21" s="16"/>
       <c r="I21" s="16"/>
       <c r="J21" s="10"/>
-      <c r="K21" s="15">
-        <v>6.3</v>
-      </c>
-      <c r="L21" s="26">
-        <v>0</v>
-      </c>
-      <c r="M21" s="26">
-        <v>1.62</v>
-      </c>
-      <c r="N21" s="24">
-        <v>27</v>
-      </c>
-      <c r="T21">
-        <v>0</v>
-      </c>
-      <c r="U21">
-        <v>0</v>
-      </c>
-      <c r="V21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K21" s="15"/>
+      <c r="L21" s="26"/>
+      <c r="M21" s="26"/>
+      <c r="N21" s="24"/>
+    </row>
+    <row r="22" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="31"/>
       <c r="B22" s="33">
         <v>21</v>
@@ -1916,37 +1645,23 @@
       <c r="H22" s="16"/>
       <c r="I22" s="16"/>
       <c r="J22" s="10"/>
-      <c r="K22" s="15">
-        <v>3.5</v>
-      </c>
-      <c r="L22" s="27">
-        <v>0</v>
-      </c>
-      <c r="M22" s="46">
-        <v>1.8</v>
-      </c>
-      <c r="N22" s="10">
-        <v>19</v>
-      </c>
+      <c r="K22" s="15"/>
+      <c r="L22" s="27"/>
+      <c r="M22" s="46"/>
+      <c r="N22" s="10"/>
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
       <c r="Q22" s="2"/>
       <c r="R22" s="2"/>
       <c r="S22" s="2"/>
-      <c r="T22" s="2">
-        <v>0</v>
-      </c>
-      <c r="U22" s="2">
-        <v>0</v>
-      </c>
-      <c r="V22" s="2">
-        <v>0</v>
-      </c>
+      <c r="T22" s="2"/>
+      <c r="U22" s="2"/>
+      <c r="V22" s="2"/>
       <c r="W22" s="2"/>
       <c r="X22" s="2"/>
       <c r="Y22" s="2"/>
     </row>
-    <row r="23" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="31"/>
       <c r="B23" s="33">
         <v>22</v>
@@ -1971,37 +1686,23 @@
         <v>10</v>
       </c>
       <c r="J23" s="10"/>
-      <c r="K23" s="15">
-        <v>3</v>
-      </c>
-      <c r="L23" s="27">
-        <v>0</v>
-      </c>
-      <c r="M23" s="46">
-        <v>1.8</v>
-      </c>
-      <c r="N23" s="10">
-        <v>18</v>
-      </c>
+      <c r="K23" s="15"/>
+      <c r="L23" s="27"/>
+      <c r="M23" s="46"/>
+      <c r="N23" s="10"/>
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
       <c r="Q23" s="2"/>
       <c r="R23" s="2"/>
       <c r="S23" s="2"/>
-      <c r="T23" s="2">
-        <v>0</v>
-      </c>
-      <c r="U23" s="2">
-        <v>30</v>
-      </c>
-      <c r="V23" s="2">
-        <v>0</v>
-      </c>
+      <c r="T23" s="2"/>
+      <c r="U23" s="2"/>
+      <c r="V23" s="2"/>
       <c r="W23" s="2"/>
       <c r="X23" s="2"/>
       <c r="Y23" s="2"/>
     </row>
-    <row r="24" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="31"/>
       <c r="B24" s="33">
         <v>23</v>
@@ -2026,37 +1727,23 @@
         <v>13</v>
       </c>
       <c r="J24" s="10"/>
-      <c r="K24" s="15">
-        <v>4.5</v>
-      </c>
-      <c r="L24" s="27">
-        <v>0</v>
-      </c>
-      <c r="M24" s="46">
-        <v>1.81</v>
-      </c>
-      <c r="N24" s="10">
-        <v>21</v>
-      </c>
+      <c r="K24" s="15"/>
+      <c r="L24" s="27"/>
+      <c r="M24" s="46"/>
+      <c r="N24" s="10"/>
       <c r="O24" s="2"/>
       <c r="P24" s="2"/>
       <c r="Q24" s="2"/>
       <c r="R24" s="2"/>
       <c r="S24" s="2"/>
-      <c r="T24" s="2">
-        <v>0</v>
-      </c>
-      <c r="U24" s="2">
-        <v>30</v>
-      </c>
-      <c r="V24" s="2">
-        <v>0</v>
-      </c>
+      <c r="T24" s="2"/>
+      <c r="U24" s="2"/>
+      <c r="V24" s="2"/>
       <c r="W24" s="2"/>
       <c r="X24" s="2"/>
       <c r="Y24" s="2"/>
     </row>
-    <row r="25" spans="1:25" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="31"/>
       <c r="B25" s="33">
         <v>24</v>
@@ -2079,37 +1766,24 @@
         <v>25</v>
       </c>
       <c r="J25" s="10"/>
-      <c r="K25" s="32">
-        <v>0.9</v>
-      </c>
-      <c r="L25" s="42">
-        <v>601110015</v>
-      </c>
-      <c r="M25" s="46">
-        <v>1.7</v>
-      </c>
-      <c r="N25" s="10">
-        <v>17.600000000000001</v>
-      </c>
+      <c r="K25" s="32"/>
+      <c r="L25" s="42"/>
+      <c r="M25" s="46"/>
+      <c r="N25" s="10"/>
       <c r="O25" s="3"/>
       <c r="P25" s="3"/>
       <c r="Q25" s="3"/>
       <c r="R25" s="3"/>
       <c r="S25" s="3"/>
-      <c r="T25" s="3">
-        <v>34</v>
-      </c>
-      <c r="U25" s="3">
-        <v>75</v>
-      </c>
-      <c r="V25" s="3">
-        <v>0</v>
-      </c>
+      <c r="T25" s="3"/>
+      <c r="U25" s="3"/>
+      <c r="V25" s="3"/>
       <c r="W25" s="3"/>
       <c r="X25" s="3"/>
       <c r="Y25" s="3"/>
-    </row>
-    <row r="26" spans="1:25" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z25"/>
+    </row>
+    <row r="26" spans="1:26" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="31"/>
       <c r="B26" s="33">
         <v>25</v>
@@ -2132,37 +1806,24 @@
         <v>25</v>
       </c>
       <c r="J26" s="10"/>
-      <c r="K26" s="32">
-        <v>0.65</v>
-      </c>
-      <c r="L26" s="42">
-        <v>1016620734</v>
-      </c>
-      <c r="M26" s="46">
-        <v>1.52</v>
-      </c>
-      <c r="N26" s="10">
-        <v>16</v>
-      </c>
+      <c r="K26" s="32"/>
+      <c r="L26" s="42"/>
+      <c r="M26" s="46"/>
+      <c r="N26" s="10"/>
       <c r="O26" s="3"/>
       <c r="P26" s="3"/>
       <c r="Q26" s="3"/>
       <c r="R26" s="3"/>
       <c r="S26" s="3"/>
-      <c r="T26" s="3">
-        <v>0</v>
-      </c>
-      <c r="U26" s="3">
-        <v>50</v>
-      </c>
-      <c r="V26" s="3">
-        <v>0</v>
-      </c>
+      <c r="T26" s="3"/>
+      <c r="U26" s="3"/>
+      <c r="V26" s="3"/>
       <c r="W26" s="3"/>
       <c r="X26" s="3"/>
       <c r="Y26" s="3"/>
-    </row>
-    <row r="27" spans="1:25" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z26"/>
+    </row>
+    <row r="27" spans="1:26" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="31"/>
       <c r="B27" s="33">
         <v>26</v>
@@ -2185,37 +1846,24 @@
         <v>44</v>
       </c>
       <c r="J27" s="10"/>
-      <c r="K27" s="32">
-        <v>3.75</v>
-      </c>
-      <c r="L27" s="42">
-        <v>200009912</v>
-      </c>
-      <c r="M27" s="46">
-        <v>1.3</v>
-      </c>
-      <c r="N27" s="10">
-        <v>23</v>
-      </c>
+      <c r="K27" s="32"/>
+      <c r="L27" s="42"/>
+      <c r="M27" s="46"/>
+      <c r="N27" s="10"/>
       <c r="O27" s="3"/>
       <c r="P27" s="3"/>
       <c r="Q27" s="3"/>
       <c r="R27" s="3"/>
       <c r="S27" s="3"/>
-      <c r="T27" s="3">
-        <v>0</v>
-      </c>
-      <c r="U27" s="3">
-        <v>150</v>
-      </c>
-      <c r="V27" s="3">
-        <v>0</v>
-      </c>
+      <c r="T27" s="3"/>
+      <c r="U27" s="3"/>
+      <c r="V27" s="3"/>
       <c r="W27" s="3"/>
       <c r="X27" s="3"/>
       <c r="Y27" s="3"/>
-    </row>
-    <row r="28" spans="1:25" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z27"/>
+    </row>
+    <row r="28" spans="1:26" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="31"/>
       <c r="B28" s="33">
         <v>27</v>
@@ -2238,37 +1886,24 @@
         <v>68</v>
       </c>
       <c r="J28" s="10"/>
-      <c r="K28" s="32">
-        <v>3.75</v>
-      </c>
-      <c r="L28" s="42">
-        <v>113600000</v>
-      </c>
-      <c r="M28" s="46">
-        <v>1.3</v>
-      </c>
-      <c r="N28" s="10">
-        <v>23</v>
-      </c>
+      <c r="K28" s="32"/>
+      <c r="L28" s="42"/>
+      <c r="M28" s="46"/>
+      <c r="N28" s="10"/>
       <c r="O28" s="3"/>
       <c r="P28" s="3"/>
       <c r="Q28" s="3"/>
       <c r="R28" s="3"/>
       <c r="S28" s="3"/>
-      <c r="T28" s="3">
-        <v>0</v>
-      </c>
-      <c r="U28" s="3">
-        <v>190</v>
-      </c>
-      <c r="V28" s="3">
-        <v>0</v>
-      </c>
+      <c r="T28" s="3"/>
+      <c r="U28" s="3"/>
+      <c r="V28" s="3"/>
       <c r="W28" s="3"/>
       <c r="X28" s="3"/>
       <c r="Y28" s="3"/>
-    </row>
-    <row r="29" spans="1:25" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z28"/>
+    </row>
+    <row r="29" spans="1:26" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="31"/>
       <c r="B29" s="33">
         <v>28</v>
@@ -2291,37 +1926,24 @@
         <v>44</v>
       </c>
       <c r="J29" s="10"/>
-      <c r="K29" s="32">
-        <v>3.75</v>
-      </c>
-      <c r="L29" s="42">
-        <v>0</v>
-      </c>
-      <c r="M29" s="46">
-        <v>1.3</v>
-      </c>
-      <c r="N29" s="10">
-        <v>23</v>
-      </c>
+      <c r="K29" s="32"/>
+      <c r="L29" s="42"/>
+      <c r="M29" s="46"/>
+      <c r="N29" s="10"/>
       <c r="O29" s="3"/>
       <c r="P29" s="3"/>
       <c r="Q29" s="3"/>
       <c r="R29" s="3"/>
       <c r="S29" s="3"/>
-      <c r="T29" s="3">
-        <v>0</v>
-      </c>
-      <c r="U29" s="3">
-        <v>0</v>
-      </c>
-      <c r="V29" s="3">
-        <v>0</v>
-      </c>
+      <c r="T29" s="3"/>
+      <c r="U29" s="3"/>
+      <c r="V29" s="3"/>
       <c r="W29" s="3"/>
       <c r="X29" s="3"/>
       <c r="Y29" s="3"/>
-    </row>
-    <row r="30" spans="1:25" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z29"/>
+    </row>
+    <row r="30" spans="1:26" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="31"/>
       <c r="B30" s="33">
         <v>29</v>
@@ -2344,37 +1966,24 @@
         <v>28</v>
       </c>
       <c r="J30" s="10"/>
-      <c r="K30" s="32">
-        <v>1.2</v>
-      </c>
-      <c r="L30" s="42">
-        <v>478023877</v>
-      </c>
-      <c r="M30" s="46">
-        <v>1.3</v>
-      </c>
-      <c r="N30" s="10">
-        <v>19</v>
-      </c>
+      <c r="K30" s="32"/>
+      <c r="L30" s="42"/>
+      <c r="M30" s="46"/>
+      <c r="N30" s="10"/>
       <c r="O30" s="3"/>
       <c r="P30" s="3"/>
       <c r="Q30" s="3"/>
       <c r="R30" s="3"/>
       <c r="S30" s="3"/>
-      <c r="T30" s="3">
-        <v>0</v>
-      </c>
-      <c r="U30" s="3">
-        <v>70</v>
-      </c>
-      <c r="V30" s="3">
-        <v>0</v>
-      </c>
+      <c r="T30" s="3"/>
+      <c r="U30" s="3"/>
+      <c r="V30" s="3"/>
       <c r="W30" s="3"/>
       <c r="X30" s="3"/>
       <c r="Y30" s="3"/>
-    </row>
-    <row r="31" spans="1:25" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z30"/>
+    </row>
+    <row r="31" spans="1:26" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="31"/>
       <c r="B31" s="33">
         <v>30</v>
@@ -2397,37 +2006,24 @@
         <v>40</v>
       </c>
       <c r="J31" s="10"/>
-      <c r="K31" s="32">
-        <v>1.95</v>
-      </c>
-      <c r="L31" s="42">
-        <v>70000000</v>
-      </c>
-      <c r="M31" s="46">
-        <v>1.75</v>
-      </c>
-      <c r="N31" s="10">
-        <v>17</v>
-      </c>
+      <c r="K31" s="32"/>
+      <c r="L31" s="42"/>
+      <c r="M31" s="46"/>
+      <c r="N31" s="10"/>
       <c r="O31" s="3"/>
       <c r="P31" s="3"/>
       <c r="Q31" s="3"/>
       <c r="R31" s="3"/>
       <c r="S31" s="3"/>
-      <c r="T31" s="3">
-        <v>0</v>
-      </c>
-      <c r="U31" s="3">
-        <v>0</v>
-      </c>
-      <c r="V31" s="3">
-        <v>0</v>
-      </c>
+      <c r="T31" s="3"/>
+      <c r="U31" s="3"/>
+      <c r="V31" s="3"/>
       <c r="W31" s="3"/>
       <c r="X31" s="3"/>
       <c r="Y31" s="3"/>
-    </row>
-    <row r="32" spans="1:25" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z31"/>
+    </row>
+    <row r="32" spans="1:26" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="31"/>
       <c r="B32" s="33">
         <v>31</v>
@@ -2450,37 +2046,24 @@
         <v>40</v>
       </c>
       <c r="J32" s="10"/>
-      <c r="K32" s="32">
-        <v>2</v>
-      </c>
-      <c r="L32" s="42">
-        <v>180000000</v>
-      </c>
-      <c r="M32" s="46">
-        <v>1.65</v>
-      </c>
-      <c r="N32" s="10">
-        <v>17</v>
-      </c>
+      <c r="K32" s="32"/>
+      <c r="L32" s="42"/>
+      <c r="M32" s="46"/>
+      <c r="N32" s="10"/>
       <c r="O32" s="3"/>
       <c r="P32" s="3"/>
       <c r="Q32" s="3"/>
       <c r="R32" s="3"/>
       <c r="S32" s="3"/>
-      <c r="T32" s="3">
-        <v>0</v>
-      </c>
-      <c r="U32" s="3">
-        <v>0</v>
-      </c>
-      <c r="V32" s="3">
-        <v>0</v>
-      </c>
+      <c r="T32" s="3"/>
+      <c r="U32" s="3"/>
+      <c r="V32" s="3"/>
       <c r="W32" s="3"/>
       <c r="X32" s="3"/>
       <c r="Y32" s="3"/>
-    </row>
-    <row r="33" spans="1:25" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z32"/>
+    </row>
+    <row r="33" spans="1:26" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="31"/>
       <c r="B33" s="33">
         <v>32</v>
@@ -2503,37 +2086,24 @@
         <v>25</v>
       </c>
       <c r="J33" s="10"/>
-      <c r="K33" s="32">
-        <v>2.4</v>
-      </c>
-      <c r="L33" s="42">
-        <v>450000000</v>
-      </c>
-      <c r="M33" s="46">
-        <v>1.7</v>
-      </c>
-      <c r="N33" s="10">
-        <v>19</v>
-      </c>
+      <c r="K33" s="32"/>
+      <c r="L33" s="42"/>
+      <c r="M33" s="46"/>
+      <c r="N33" s="10"/>
       <c r="O33" s="3"/>
       <c r="P33" s="3"/>
       <c r="Q33" s="3"/>
       <c r="R33" s="3"/>
       <c r="S33" s="3"/>
-      <c r="T33" s="3">
-        <v>0</v>
-      </c>
-      <c r="U33" s="3">
-        <v>75</v>
-      </c>
-      <c r="V33" s="3">
-        <v>0</v>
-      </c>
+      <c r="T33" s="3"/>
+      <c r="U33" s="3"/>
+      <c r="V33" s="3"/>
       <c r="W33" s="3"/>
       <c r="X33" s="3"/>
       <c r="Y33" s="3"/>
-    </row>
-    <row r="34" spans="1:25" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z33"/>
+    </row>
+    <row r="34" spans="1:26" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="31"/>
       <c r="B34" s="33">
         <v>33</v>
@@ -2556,37 +2126,24 @@
         <v>25</v>
       </c>
       <c r="J34" s="10"/>
-      <c r="K34" s="32">
-        <v>1.5</v>
-      </c>
-      <c r="L34" s="42">
-        <v>0</v>
-      </c>
-      <c r="M34" s="46">
-        <v>1.2</v>
-      </c>
-      <c r="N34" s="10">
-        <v>22</v>
-      </c>
+      <c r="K34" s="32"/>
+      <c r="L34" s="42"/>
+      <c r="M34" s="46"/>
+      <c r="N34" s="10"/>
       <c r="O34" s="3"/>
       <c r="P34" s="3"/>
       <c r="Q34" s="3"/>
       <c r="R34" s="3"/>
       <c r="S34" s="3"/>
-      <c r="T34" s="3">
-        <v>0</v>
-      </c>
-      <c r="U34" s="3">
-        <v>0</v>
-      </c>
-      <c r="V34" s="3">
-        <v>0</v>
-      </c>
+      <c r="T34" s="3"/>
+      <c r="U34" s="3"/>
+      <c r="V34" s="3"/>
       <c r="W34" s="3"/>
       <c r="X34" s="3"/>
       <c r="Y34" s="3"/>
-    </row>
-    <row r="35" spans="1:25" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z34"/>
+    </row>
+    <row r="35" spans="1:26" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="31"/>
       <c r="B35" s="33">
         <v>34</v>
@@ -2609,37 +2166,24 @@
         <v>44</v>
       </c>
       <c r="J35" s="10"/>
-      <c r="K35" s="32">
-        <v>3.75</v>
-      </c>
-      <c r="L35" s="42">
-        <v>159770000</v>
-      </c>
-      <c r="M35" s="46">
-        <v>1.3</v>
-      </c>
-      <c r="N35" s="10">
-        <v>23</v>
-      </c>
+      <c r="K35" s="32"/>
+      <c r="L35" s="42"/>
+      <c r="M35" s="46"/>
+      <c r="N35" s="10"/>
       <c r="O35" s="3"/>
       <c r="P35" s="3"/>
       <c r="Q35" s="3"/>
       <c r="R35" s="3"/>
       <c r="S35" s="3"/>
-      <c r="T35" s="3">
-        <v>0</v>
-      </c>
-      <c r="U35" s="3">
-        <v>0</v>
-      </c>
-      <c r="V35" s="3">
-        <v>0</v>
-      </c>
+      <c r="T35" s="3"/>
+      <c r="U35" s="3"/>
+      <c r="V35" s="3"/>
       <c r="W35" s="3"/>
       <c r="X35" s="3"/>
       <c r="Y35" s="3"/>
-    </row>
-    <row r="36" spans="1:25" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z35"/>
+    </row>
+    <row r="36" spans="1:26" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="31"/>
       <c r="B36" s="33">
         <v>35</v>
@@ -2662,37 +2206,24 @@
         <v>40</v>
       </c>
       <c r="J36" s="10"/>
-      <c r="K36" s="32">
-        <v>1</v>
-      </c>
-      <c r="L36" s="42">
-        <v>0</v>
-      </c>
-      <c r="M36" s="46">
-        <v>1.3</v>
-      </c>
-      <c r="N36" s="10">
-        <v>22</v>
-      </c>
+      <c r="K36" s="32"/>
+      <c r="L36" s="42"/>
+      <c r="M36" s="46"/>
+      <c r="N36" s="10"/>
       <c r="O36" s="3"/>
       <c r="P36" s="3"/>
       <c r="Q36" s="3"/>
       <c r="R36" s="3"/>
       <c r="S36" s="3"/>
-      <c r="T36" s="3">
-        <v>36</v>
-      </c>
-      <c r="U36" s="3">
-        <v>0</v>
-      </c>
-      <c r="V36" s="3">
-        <v>0</v>
-      </c>
+      <c r="T36" s="3"/>
+      <c r="U36" s="3"/>
+      <c r="V36" s="3"/>
       <c r="W36" s="3"/>
       <c r="X36" s="3"/>
       <c r="Y36" s="3"/>
-    </row>
-    <row r="37" spans="1:25" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z36"/>
+    </row>
+    <row r="37" spans="1:26" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="31"/>
       <c r="B37" s="33">
         <v>36</v>
@@ -2715,37 +2246,24 @@
         <v>33</v>
       </c>
       <c r="J37" s="10"/>
-      <c r="K37" s="32">
-        <v>1</v>
-      </c>
-      <c r="L37" s="42">
-        <v>0</v>
-      </c>
-      <c r="M37" s="46">
-        <v>1.3</v>
-      </c>
-      <c r="N37" s="10">
-        <v>22</v>
-      </c>
+      <c r="K37" s="32"/>
+      <c r="L37" s="42"/>
+      <c r="M37" s="46"/>
+      <c r="N37" s="10"/>
       <c r="O37" s="3"/>
       <c r="P37" s="3"/>
       <c r="Q37" s="3"/>
       <c r="R37" s="3"/>
       <c r="S37" s="3"/>
-      <c r="T37" s="3">
-        <v>0</v>
-      </c>
-      <c r="U37" s="3">
-        <v>0</v>
-      </c>
-      <c r="V37" s="3">
-        <v>0</v>
-      </c>
+      <c r="T37" s="3"/>
+      <c r="U37" s="3"/>
+      <c r="V37" s="3"/>
       <c r="W37" s="3"/>
       <c r="X37" s="3"/>
       <c r="Y37" s="3"/>
-    </row>
-    <row r="38" spans="1:25" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z37"/>
+    </row>
+    <row r="38" spans="1:26" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="31"/>
       <c r="B38" s="33">
         <v>37</v>
@@ -2768,37 +2286,24 @@
         <v>35</v>
       </c>
       <c r="J38" s="10"/>
-      <c r="K38" s="32">
-        <v>2.8</v>
-      </c>
-      <c r="L38" s="42">
-        <v>0</v>
-      </c>
-      <c r="M38" s="46">
-        <v>1.5</v>
-      </c>
-      <c r="N38" s="10">
-        <v>19</v>
-      </c>
+      <c r="K38" s="32"/>
+      <c r="L38" s="42"/>
+      <c r="M38" s="46"/>
+      <c r="N38" s="10"/>
       <c r="O38" s="3"/>
       <c r="P38" s="3"/>
       <c r="Q38" s="3"/>
       <c r="R38" s="3"/>
       <c r="S38" s="3"/>
-      <c r="T38" s="3">
-        <v>23</v>
-      </c>
-      <c r="U38" s="3">
-        <v>0</v>
-      </c>
-      <c r="V38" s="3">
-        <v>0</v>
-      </c>
+      <c r="T38" s="3"/>
+      <c r="U38" s="3"/>
+      <c r="V38" s="3"/>
       <c r="W38" s="3"/>
       <c r="X38" s="3"/>
       <c r="Y38" s="3"/>
-    </row>
-    <row r="39" spans="1:25" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z38"/>
+    </row>
+    <row r="39" spans="1:26" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="31"/>
       <c r="B39" s="33">
         <v>38</v>
@@ -2821,37 +2326,24 @@
         <v>35</v>
       </c>
       <c r="J39" s="10"/>
-      <c r="K39" s="32">
-        <v>4.5</v>
-      </c>
-      <c r="L39" s="42">
-        <v>268161000</v>
-      </c>
-      <c r="M39" s="46">
-        <v>1.2</v>
-      </c>
-      <c r="N39" s="10">
-        <v>23.5</v>
-      </c>
+      <c r="K39" s="32"/>
+      <c r="L39" s="42"/>
+      <c r="M39" s="46"/>
+      <c r="N39" s="10"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-      <c r="T39" s="3">
-        <v>84</v>
-      </c>
-      <c r="U39" s="3">
-        <v>0</v>
-      </c>
-      <c r="V39" s="3">
-        <v>0</v>
-      </c>
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="1:25" s="7" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z39"/>
+    </row>
+    <row r="40" spans="1:26" s="7" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="31"/>
       <c r="B40" s="33">
         <v>39</v>
@@ -2874,28 +2366,17 @@
         <v>8</v>
       </c>
       <c r="J40" s="10"/>
-      <c r="K40" s="40">
-        <v>3.2</v>
-      </c>
-      <c r="L40" s="17">
-        <v>451170000</v>
-      </c>
-      <c r="M40" s="17">
-        <v>1.55</v>
-      </c>
-      <c r="N40" s="40">
-        <v>20</v>
-      </c>
-      <c r="T40">
-        <v>0</v>
-      </c>
-      <c r="U40">
-        <v>0</v>
-      </c>
-      <c r="V40">
-        <v>0</v>
-      </c>
+      <c r="K40" s="40"/>
+      <c r="L40" s="17"/>
+      <c r="M40" s="17"/>
+      <c r="N40" s="40"/>
+      <c r="T40"/>
+      <c r="U40"/>
+      <c r="V40"/>
       <c r="W40"/>
+      <c r="X40"/>
+      <c r="Y40"/>
+      <c r="Z40"/>
     </row>
   </sheetData>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.15748031496062992" bottom="0.15748031496062992" header="0.19685039370078741" footer="0.11811023622047245"/>
